--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_12_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_12_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47629.72555755275</v>
+        <v>9441213.794948675</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>47629.72555755275</v>
+        <v>9441213.794948675</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>45604.80670901082</v>
+        <v>4756705.925184543</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>45604.80670901082</v>
+        <v>4756705.925184543</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1609974808.486154</v>
+        <v>62308865.43445872</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13199.48413105111</v>
+        <v>1436105.674921743</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25673.68714460014</v>
+        <v>2758451.567270966</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>38147.89015814917</v>
+        <v>4080797.459620192</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>53242.54137374346</v>
+        <v>5231719.138371821</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>67532.79111706416</v>
+        <v>6420749.27581773</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>81823.04086038486</v>
+        <v>7609779.413263633</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>96229.67889606921</v>
+        <v>8894740.493862506</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>110529.4480969841</v>
+        <v>10158182.26651989</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>125389.9350049237</v>
+        <v>11263237.20995655</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>138607.7233046741</v>
+        <v>12564291.52339188</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>151825.5116044246</v>
+        <v>13865345.8368272</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>164218.5673794963</v>
+        <v>15162147.89353297</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>176737.5383060836</v>
+        <v>16484007.0653902</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>191942.5176000291</v>
+        <v>17448304.04183063</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>209981.4120800666</v>
+        <v>17924593.11965045</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>217.0000000000296</v>
@@ -27052,13 +27052,13 @@
         <v>34</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>183</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,7 +27144,7 @@
         <v>421</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27153,10 +27153,10 @@
         <v>265</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>229</v>
